--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -420,10 +420,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名簿</t>
+    <t>名簿（リスト）</t>
     <rPh sb="0" eb="2">
       <t>メイボ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（配列）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -586,15 +604,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1315,7 +1334,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1326,8 +1345,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1338,7 +1357,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1347,7 +1366,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1364,17 +1383,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -1388,10 +1407,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1532,10 +1551,10 @@
       <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1546,10 +1565,10 @@
       <c r="C33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1702,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1725,7 +1744,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
@@ -1735,49 +1754,110 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
     <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -442,6 +443,20 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -591,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -609,6 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -919,7 +935,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31:D33"/>
     </sheetView>
   </sheetViews>
@@ -1334,7 +1350,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1345,8 +1361,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1357,7 +1373,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1366,7 +1382,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1383,17 +1399,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -1407,10 +1423,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1594,7 +1610,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E11"/>
+      <selection activeCell="A3" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1723,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1863,4 +1879,152 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10">
+        <v>42095</v>
+      </c>
+      <c r="E14" s="10">
+        <v>42096</v>
+      </c>
+      <c r="F14" s="10">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
+    <sheet name="連結した表" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -456,6 +457,52 @@
     <t>出欠</t>
     <rPh sb="0" eb="2">
       <t>シュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前3</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,8 +546,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +580,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -601,12 +668,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -626,10 +702,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -935,7 +1032,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1111,25 +1208,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1151,7 +1248,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1162,143 +1259,164 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="16">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>12.456</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D15" s="2">
         <v>-12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E20" s="2">
         <v>12.456</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E21" s="2">
         <v>-12</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="4">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4">
-        <f>SUM(E16:E17)</f>
+      <c r="E22" s="4">
+        <f>SUM(E20:E21)</f>
         <v>0.45599999999999952</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D20" s="1" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F26" s="2">
         <v>12.456</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F27" s="2">
         <v>-12</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1313,7 +1431,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D33"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,7 +1468,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1361,8 +1479,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1373,7 +1491,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1382,7 +1500,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1399,17 +1517,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -1423,10 +1541,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1610,7 +1728,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1740,7 +1858,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C9"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2027,4 +2145,124 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="E5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="26">
+        <v>36617</v>
+      </c>
+      <c r="E7" s="16">
+        <v>90</v>
+      </c>
+      <c r="F7" s="16">
+        <v>70</v>
+      </c>
+      <c r="G7" s="27">
+        <f>SUM(E7:F7)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="26">
+        <v>36618</v>
+      </c>
+      <c r="E8" s="16">
+        <v>80</v>
+      </c>
+      <c r="F8" s="16">
+        <v>90</v>
+      </c>
+      <c r="G8" s="27">
+        <f>SUM(E8:F8)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="33"/>
+      <c r="C9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27">
+        <f>AVERAGE(E7:E8)</f>
+        <v>85</v>
+      </c>
+      <c r="F9" s="27">
+        <f>AVERAGE(F7:F8)</f>
+        <v>80</v>
+      </c>
+      <c r="G9" s="27">
+        <f>AVERAGE(G7:G8)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
-    <sheet name="連結した表" sheetId="7" r:id="rId7"/>
+    <sheet name="データの開始位置" sheetId="8" r:id="rId7"/>
+    <sheet name="連結した表" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -504,6 +505,23 @@
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの開始位置が離れている</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -677,12 +695,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -703,14 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -718,13 +740,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1083,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1276,9 +1327,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
@@ -1468,7 +1519,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1479,8 +1530,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1491,7 +1542,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1500,7 +1551,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1517,17 +1568,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -1541,10 +1592,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -2003,9 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2149,60 +2198,224 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="17">
+        <v>90</v>
+      </c>
+      <c r="E7" s="17">
+        <v>70</v>
+      </c>
+      <c r="F7" s="22">
+        <f>SUM(D7:E7)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="28">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="17">
+        <v>80</v>
+      </c>
+      <c r="E8" s="17">
+        <v>90</v>
+      </c>
+      <c r="F8" s="22">
+        <f>SUM(D8:E8)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="28">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17">
+        <v>90</v>
+      </c>
+      <c r="E15" s="17">
+        <v>70</v>
+      </c>
+      <c r="F15" s="22">
+        <f>SUM(D15:E15)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="28">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="17">
+        <v>80</v>
+      </c>
+      <c r="E16" s="17">
+        <v>90</v>
+      </c>
+      <c r="F16" s="22">
+        <f>SUM(D16:E16)</f>
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="25"/>
+      <c r="E5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="16">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>36617</v>
       </c>
       <c r="E7" s="16">
@@ -2211,19 +2424,19 @@
       <c r="F7" s="16">
         <v>70</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="22">
         <f>SUM(E7:F7)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="16">
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <v>36618</v>
       </c>
       <c r="E8" s="16">
@@ -2232,26 +2445,26 @@
       <c r="F8" s="16">
         <v>90</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="22">
         <f>SUM(E8:F8)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="33"/>
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
+      <c r="C9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="27">
+      <c r="D9" s="41"/>
+      <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <f>AVERAGE(F7:F8)</f>
         <v>80</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="22">
         <f>AVERAGE(G7:G8)</f>
         <v>165</v>
       </c>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
     <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
     <sheet name="データの開始位置" sheetId="8" r:id="rId7"/>
-    <sheet name="連結した表" sheetId="7" r:id="rId8"/>
+    <sheet name="正規表現で一致" sheetId="9" r:id="rId8"/>
+    <sheet name="連結した表" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -522,6 +523,120 @@
   </si>
   <si>
     <t>見出しが結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（通常）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 測定結果
+[タイトルが正規表現]  </t>
+    <rPh sb="1" eb="3">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（見出しが正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前
+（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（終端が正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【合計】 </t>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -750,6 +865,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -778,6 +894,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -785,6 +913,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1519,7 +1652,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1530,8 +1663,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1542,7 +1675,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1551,7 +1684,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1568,17 +1701,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -1592,10 +1725,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -2200,9 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2285,21 +2416,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>
@@ -2359,6 +2490,246 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="29">
+        <v>30</v>
+      </c>
+      <c r="E6" s="29">
+        <v>40</v>
+      </c>
+      <c r="F6" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="29">
+        <v>30</v>
+      </c>
+      <c r="E13" s="29">
+        <v>40</v>
+      </c>
+      <c r="F13" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="28">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29">
+        <v>30</v>
+      </c>
+      <c r="E19" s="29">
+        <v>40</v>
+      </c>
+      <c r="F19" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="28">
+        <v>2</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="28">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="29">
+        <v>30</v>
+      </c>
+      <c r="E25" s="29">
+        <v>40</v>
+      </c>
+      <c r="F25" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="28">
+        <v>2</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="46">
+        <v>3</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="22">
+        <f>SUM(D25:D26)</f>
+        <v>30</v>
+      </c>
+      <c r="E27" s="22">
+        <f>SUM(E25:E26)</f>
+        <v>40</v>
+      </c>
+      <c r="F27" s="22">
+        <f>SUM(F25:F26)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2382,11 +2753,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -2452,10 +2823,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="93">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -636,6 +636,45 @@
     <t xml:space="preserve"> 【合計】 </t>
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム（終了条件がある）</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず出席します。</t>
+    <rPh sb="5" eb="7">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善している。</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考
+（オプション）</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -826,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -866,6 +905,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -895,16 +947,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1652,7 +1698,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1663,8 +1709,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1675,7 +1721,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1684,7 +1730,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1701,17 +1747,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -1725,10 +1771,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1909,25 +1955,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="A15" sqref="A15:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1944,7 +1993,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1959,7 +2008,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1976,59 +2025,120 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="10">
         <v>42095</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>42096</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>42097</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10">
+        <v>42095</v>
+      </c>
+      <c r="D16" s="10">
+        <v>42096</v>
+      </c>
+      <c r="E16" s="10">
+        <v>42097</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
+        <v>1</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="30">
+        <v>2</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2416,21 +2526,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>
@@ -2490,46 +2600,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="28">
         <v>1</v>
       </c>
@@ -2545,8 +2659,11 @@
       <c r="F6" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="28">
         <v>2</v>
       </c>
@@ -2554,33 +2671,37 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="28">
         <v>1</v>
       </c>
@@ -2596,8 +2717,11 @@
       <c r="F13" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="28">
         <v>2</v>
       </c>
@@ -2605,30 +2729,34 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="30"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B18" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="45" t="s">
+    <row r="18" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="28">
         <v>1</v>
       </c>
@@ -2644,8 +2772,11 @@
       <c r="F19" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="28">
         <v>2</v>
       </c>
@@ -2653,30 +2784,34 @@
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="30"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="45" t="s">
+    <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="28">
         <v>1</v>
       </c>
@@ -2692,8 +2827,11 @@
       <c r="F25" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="28">
         <v>2</v>
       </c>
@@ -2701,9 +2839,10 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="46">
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="34">
         <v>3</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2721,6 +2860,7 @@
         <f>SUM(F25:F26)</f>
         <v>50</v>
       </c>
+      <c r="G27" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2753,11 +2893,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -2823,10 +2963,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,25 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6090" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
     <sheet name="終了位置の指定" sheetId="2" r:id="rId2"/>
-    <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
-    <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
-    <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
-    <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId6"/>
-    <sheet name="データの開始位置" sheetId="8" r:id="rId7"/>
-    <sheet name="正規表現で一致" sheetId="9" r:id="rId8"/>
-    <sheet name="連結した表" sheetId="7" r:id="rId9"/>
+    <sheet name="見出しの空白" sheetId="11" r:id="rId3"/>
+    <sheet name="カラムの設定" sheetId="3" r:id="rId4"/>
+    <sheet name="マップカラムの設定" sheetId="4" r:id="rId5"/>
+    <sheet name="レコードの設定" sheetId="5" r:id="rId6"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="6" r:id="rId7"/>
+    <sheet name="データの開始位置" sheetId="8" r:id="rId8"/>
+    <sheet name="正規表現で一致" sheetId="9" r:id="rId9"/>
+    <sheet name="連結した表" sheetId="7" r:id="rId10"/>
+    <sheet name="ネストした表" sheetId="10" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
+    <definedName name="操作">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="165">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -676,6 +685,470 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（大分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（中分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能Aの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A1</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A1の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A11</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A12</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A2</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A2の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A21</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A3</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能A3の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A31</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A32</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能B</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能Bの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能B1</t>
+  </si>
+  <si>
+    <t>機能B1の説明</t>
+  </si>
+  <si>
+    <t>項目B11</t>
+  </si>
+  <si>
+    <t>機能B2</t>
+  </si>
+  <si>
+    <t>機能B2の説明</t>
+  </si>
+  <si>
+    <t>項目B21</t>
+  </si>
+  <si>
+    <t>項目B22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能C</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能Cの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能C1</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能C1の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目C11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の表</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のレコードがある表</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A33</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目A11の値</t>
+  </si>
+  <si>
+    <t>項目A12の値</t>
+  </si>
+  <si>
+    <t>項目A21の値</t>
+  </si>
+  <si>
+    <t>項目A31の値</t>
+  </si>
+  <si>
+    <t>項目A32の値</t>
+  </si>
+  <si>
+    <t>項目A33の値</t>
+  </si>
+  <si>
+    <t>項目B11の値</t>
+  </si>
+  <si>
+    <t>項目B21の値</t>
+  </si>
+  <si>
+    <t>項目B22の値</t>
+  </si>
+  <si>
+    <t>項目C11の値</t>
+  </si>
+  <si>
+    <t>見出しが結合している表</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対1のネスト</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田花子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（集合）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@HorizontalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※属性rangeの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白なし</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白がある</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始位置がずれている</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2222-222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2222-222</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,10 +1156,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +1200,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,8 +1253,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -860,12 +1361,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -917,6 +1429,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -946,12 +1499,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -970,6 +1549,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="開始位置の指定"/>
+      <sheetName val="終了位置の指定"/>
+      <sheetName val="見出しの空白"/>
+      <sheetName val="カラムの設定"/>
+      <sheetName val="マップカラムの設定"/>
+      <sheetName val="レコードの設定"/>
+      <sheetName val="余分なレコードの制御"/>
+      <sheetName val="オプション設定（入力規則）"/>
+      <sheetName val="オプション指定（コメント）"/>
+      <sheetName val="メソッドにアノテーションを設定"/>
+      <sheetName val="データの開始位置"/>
+      <sheetName val="正規表現で一致"/>
+      <sheetName val="ネストした表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>参照</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>作成</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>削除</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>更新</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1436,12 +2073,952 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="E5" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="21">
+        <v>36617</v>
+      </c>
+      <c r="E7" s="16">
+        <v>90</v>
+      </c>
+      <c r="F7" s="16">
+        <v>70</v>
+      </c>
+      <c r="G7" s="22">
+        <f>SUM(E7:F7)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="21">
+        <v>36618</v>
+      </c>
+      <c r="E8" s="16">
+        <v>80</v>
+      </c>
+      <c r="F8" s="16">
+        <v>90</v>
+      </c>
+      <c r="G8" s="22">
+        <f>SUM(E8:F8)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
+      <c r="C9" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="22">
+        <f>AVERAGE(E7:E8)</f>
+        <v>85</v>
+      </c>
+      <c r="F9" s="22">
+        <f>AVERAGE(F7:F8)</f>
+        <v>80</v>
+      </c>
+      <c r="G9" s="22">
+        <f>AVERAGE(G7:G8)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="74"/>
+      <c r="F38" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="74"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="41">
+        <v>1</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="51">
+        <v>36617</v>
+      </c>
+      <c r="F58" s="41">
+        <v>90</v>
+      </c>
+      <c r="G58" s="41">
+        <v>70</v>
+      </c>
+      <c r="H58" s="22">
+        <f>SUM(F58:G58)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="41">
+        <v>2</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="51">
+        <v>36618</v>
+      </c>
+      <c r="F59" s="41">
+        <v>80</v>
+      </c>
+      <c r="G59" s="41">
+        <v>90</v>
+      </c>
+      <c r="H59" s="22">
+        <f>SUM(F59:G59)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="41">
+        <v>3</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="51">
+        <v>36647</v>
+      </c>
+      <c r="F60" s="41">
+        <v>60</v>
+      </c>
+      <c r="G60" s="41">
+        <v>30</v>
+      </c>
+      <c r="H60" s="22">
+        <f>SUM(F60:G60)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="41">
+        <v>4</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="51">
+        <v>36648</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="22">
+        <f>SUM(F61:G61)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,10 +3235,217 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="52">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="52">
+        <v>1</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="52">
+        <v>2</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="52">
+        <v>1</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="52">
+        <v>2</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C25" s="52">
+        <v>1</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C26" s="52">
+        <v>2</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1673,17 +3457,17 @@
     <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1694,45 +3478,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1743,40 +3527,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" s="56"/>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -1788,6 +3575,9 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
@@ -1802,6 +3592,9 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
@@ -1953,7 +3746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -2147,12 +3940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A12" sqref="A12:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2226,66 +4019,132 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="44">
+        <v>1</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="44">
+        <v>2</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="44">
+        <v>3</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="44">
+        <v>4</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
         <v>4</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2293,11 +4152,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2439,11 +4300,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2526,21 +4389,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>
@@ -2598,11 +4461,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2639,7 +4502,7 @@
       <c r="F5" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="35" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2697,7 +4560,7 @@
       <c r="F12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="35" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2752,7 +4615,7 @@
       <c r="F18" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2807,7 +4670,7 @@
       <c r="F24" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2866,127 +4729,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="E5" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="21">
-        <v>36617</v>
-      </c>
-      <c r="E7" s="16">
-        <v>90</v>
-      </c>
-      <c r="F7" s="16">
-        <v>70</v>
-      </c>
-      <c r="G7" s="22">
-        <f>SUM(E7:F7)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="16">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="21">
-        <v>36618</v>
-      </c>
-      <c r="E8" s="16">
-        <v>80</v>
-      </c>
-      <c r="F8" s="16">
-        <v>90</v>
-      </c>
-      <c r="G8" s="22">
-        <f>SUM(E8:F8)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="22">
-        <f>AVERAGE(E7:E8)</f>
-        <v>85</v>
-      </c>
-      <c r="F9" s="22">
-        <f>AVERAGE(F7:F8)</f>
-        <v>80</v>
-      </c>
-      <c r="G9" s="22">
-        <f>AVERAGE(G7:G8)</f>
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="正規表現で一致" sheetId="9" r:id="rId9"/>
     <sheet name="連結した表" sheetId="7" r:id="rId10"/>
     <sheet name="ネストした表" sheetId="10" r:id="rId11"/>
+    <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1149,6 +1150,39 @@
   </si>
   <si>
     <t>090-2222-222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席可能数</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1377,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1471,6 +1505,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1499,15 +1536,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,14 +1551,22 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1568,15 +1604,16 @@
       <sheetName val="データの開始位置"/>
       <sheetName val="正規表現で一致"/>
       <sheetName val="ネストした表"/>
+      <sheetName val="数式を指定"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1599,11 +1636,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2100,11 +2138,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -2170,10 +2208,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
@@ -2202,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -2245,16 +2283,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="75" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2265,10 +2303,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2277,8 +2315,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2293,12 +2331,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2309,10 +2347,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2321,10 +2359,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2333,10 +2371,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="75" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2353,12 +2391,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="75" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2369,10 +2407,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2434,16 +2472,16 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="75" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2454,10 +2492,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2466,16 +2504,16 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -2490,12 +2528,12 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="67" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -2506,10 +2544,10 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -2518,10 +2556,10 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -2538,10 +2576,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="75" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -2558,12 +2596,12 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="67" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="75" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -2574,18 +2612,18 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2627,10 +2665,10 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="73" t="s">
         <v>141</v>
       </c>
@@ -2661,16 +2699,16 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="75" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -2681,10 +2719,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -2693,16 +2731,16 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -2717,12 +2755,12 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="67" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -2733,10 +2771,10 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -2745,10 +2783,10 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -2765,10 +2803,10 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="75" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -2785,12 +2823,12 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="67" t="s">
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="75" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -2801,18 +2839,18 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -2931,7 +2969,7 @@
       <c r="B60" s="41">
         <v>3</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="60" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
@@ -2955,7 +2993,7 @@
       <c r="B61" s="41">
         <v>4</v>
       </c>
-      <c r="C61" s="58"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="41" t="s">
         <v>151</v>
       </c>
@@ -2971,6 +3009,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
@@ -2987,26 +3045,196 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="54">
+        <v>90</v>
+      </c>
+      <c r="E8" s="54">
+        <v>70</v>
+      </c>
+      <c r="F8" s="22">
+        <f>SUM(D8:E8)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="28">
+        <v>2</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="54">
+        <v>80</v>
+      </c>
+      <c r="E9" s="54">
+        <v>90</v>
+      </c>
+      <c r="F9" s="22">
+        <f>SUM(D9:E9)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="28">
+        <v>3</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="54">
+        <f>AVERAGE(D8:D9)</f>
+        <v>85</v>
+      </c>
+      <c r="E10" s="54">
+        <f>AVERAGE(E8:E9)</f>
+        <v>80</v>
+      </c>
+      <c r="F10" s="22">
+        <f>SUM(D10:E10)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="80">
+        <v>42095</v>
+      </c>
+      <c r="E14" s="80">
+        <v>42096</v>
+      </c>
+      <c r="F14" s="80">
+        <v>42097</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="54">
+        <v>1</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54">
+        <f>COUNTIF(D15:F15,"出席")</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="54">
+        <v>2</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="54">
+        <f>COUNTIF(D16:F16,"出席")</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,10 +3533,10 @@
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="9" t="s">
         <v>162</v>
       </c>
@@ -3444,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
@@ -3482,7 +3710,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3493,8 +3721,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3505,7 +3733,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="57"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -3514,7 +3742,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="57"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -3531,17 +3759,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="60"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -3555,10 +3783,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4305,7 +4533,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4389,21 +4617,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="連結した表" sheetId="7" r:id="rId10"/>
     <sheet name="ネストした表" sheetId="10" r:id="rId11"/>
     <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
+    <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="175">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1182,6 +1183,61 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性「headerBottom」の指定</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsRecordFinder」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本花子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林明</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部昌子</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マサコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1250,7 +1306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,7 +1473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1505,6 +1567,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1536,6 +1600,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1551,22 +1624,21 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2138,11 +2210,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -2208,10 +2280,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
@@ -2283,16 +2355,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="72" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2303,10 +2375,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2315,8 +2387,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2331,12 +2403,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="75" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="72" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2347,10 +2419,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2359,10 +2431,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2371,10 +2443,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="72" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2391,12 +2463,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="75" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="72" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2407,10 +2479,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2472,16 +2544,16 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="72" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2492,10 +2564,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2504,16 +2576,16 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -2528,12 +2600,12 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="75" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="72" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -2544,10 +2616,10 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -2556,10 +2628,10 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -2576,10 +2648,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="72" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -2596,12 +2668,12 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="75" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="72" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -2612,18 +2684,18 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2665,18 +2737,18 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="73" t="s">
+      <c r="C38" s="81"/>
+      <c r="D38" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="73" t="s">
+      <c r="E38" s="79"/>
+      <c r="F38" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="74"/>
+      <c r="G38" s="79"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="47" t="s">
@@ -2699,16 +2771,16 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="72" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -2719,10 +2791,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -2731,16 +2803,16 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -2755,12 +2827,12 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="75" t="s">
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="72" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -2771,10 +2843,10 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -2783,10 +2855,10 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -2803,10 +2875,10 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="72" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -2823,12 +2895,12 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="75" t="s">
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="72" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -2839,18 +2911,18 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -2890,11 +2962,11 @@
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="9" t="s">
@@ -2923,7 +2995,7 @@
       <c r="B58" s="41">
         <v>1</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="76" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -2947,7 +3019,7 @@
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="72"/>
+      <c r="C59" s="77"/>
       <c r="D59" s="41" t="s">
         <v>35</v>
       </c>
@@ -2969,7 +3041,7 @@
       <c r="B60" s="41">
         <v>3</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="62" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
@@ -2993,7 +3065,7 @@
       <c r="B61" s="41">
         <v>4</v>
       </c>
-      <c r="C61" s="61"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="41" t="s">
         <v>151</v>
       </c>
@@ -3009,26 +3081,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
@@ -3045,6 +3097,26 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3077,21 +3149,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3170,16 +3242,16 @@
       <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="56">
         <v>42095</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="56">
         <v>42096</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="56">
         <v>42097</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="56" t="s">
         <v>165</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -3235,6 +3307,178 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="55">
+        <v>90</v>
+      </c>
+      <c r="E9" s="55">
+        <v>70</v>
+      </c>
+      <c r="F9" s="22">
+        <f>SUM(D9:E9)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="28">
+        <v>2</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="55">
+        <v>80</v>
+      </c>
+      <c r="E10" s="55">
+        <v>90</v>
+      </c>
+      <c r="F10" s="22">
+        <f>SUM(D10:E10)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="55">
+        <v>70</v>
+      </c>
+      <c r="E12" s="55">
+        <v>80</v>
+      </c>
+      <c r="F12" s="22">
+        <f>SUM(D12:E12)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="55">
+        <v>75</v>
+      </c>
+      <c r="E13" s="55">
+        <v>85</v>
+      </c>
+      <c r="F13" s="22">
+        <f>SUM(D13:E13)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="28">
+        <v>3</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="55">
+        <v>90</v>
+      </c>
+      <c r="E14" s="55">
+        <v>75</v>
+      </c>
+      <c r="F14" s="22">
+        <f>SUM(D14:E14)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3533,10 +3777,10 @@
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="9" t="s">
         <v>162</v>
       </c>
@@ -3710,7 +3954,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3721,8 +3965,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3733,7 +3977,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -3742,7 +3986,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -3759,17 +4003,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="62"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -3783,10 +4027,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4533,7 +4777,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4546,6 +4790,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>76</v>
@@ -4617,21 +4866,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -1677,15 +1677,18 @@
       <sheetName val="正規表現で一致"/>
       <sheetName val="ネストした表"/>
       <sheetName val="数式を指定"/>
+      <sheetName val="余分なレコードの制御と終端の判定"/>
+      <sheetName val="結合セルの補正"/>
+      <sheetName val="独自の開始位置"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1708,12 +1711,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3128,7 +3134,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3318,7 +3324,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="B5:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4776,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="1230" yWindow="945" windowWidth="14805" windowHeight="7110" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="ネストした表" sheetId="10" r:id="rId11"/>
     <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
+    <sheet name="配列カラムの設定" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="193">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1238,6 +1239,114 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>マサコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsArrayColumns」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（文字列）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（結合がある）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test01@example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test02@example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木県</t>
+    <rPh sb="0" eb="3">
+      <t>トチギケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-1234-5678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-1111-2222</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（型変換）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カタヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">090 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1111 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2222 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1234 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日</t>
+    <rPh sb="0" eb="3">
+      <t>コウホビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1362,7 +1471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1468,12 +1577,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1569,6 +1723,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1639,6 +1798,36 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1680,6 +1869,7 @@
       <sheetName val="余分なレコードの制御と終端の判定"/>
       <sheetName val="結合セルの補正"/>
       <sheetName val="独自の開始位置"/>
+      <sheetName val="配列カラムの設定"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1720,6 +1910,7 @@
       <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2216,11 +2407,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -2286,10 +2477,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="71"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
@@ -2361,16 +2552,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2381,10 +2572,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2393,8 +2584,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2409,12 +2600,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="72" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="77" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2425,10 +2616,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2437,10 +2628,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2449,10 +2640,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="77" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2469,12 +2660,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="72" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="77" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2485,10 +2676,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2550,16 +2741,16 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="77" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2570,10 +2761,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2582,16 +2773,16 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -2606,12 +2797,12 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="72" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="77" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -2622,10 +2813,10 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -2634,10 +2825,10 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -2654,10 +2845,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="77" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -2674,12 +2865,12 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="72" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="77" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -2690,18 +2881,18 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2743,18 +2934,18 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="78" t="s">
+      <c r="C38" s="86"/>
+      <c r="D38" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="78" t="s">
+      <c r="E38" s="84"/>
+      <c r="F38" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="79"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="47" t="s">
@@ -2777,16 +2968,16 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="77" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -2797,10 +2988,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -2809,16 +3000,16 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -2833,12 +3024,12 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="72" t="s">
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="77" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -2849,10 +3040,10 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -2861,10 +3052,10 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -2881,10 +3072,10 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="77" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -2901,12 +3092,12 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="72" t="s">
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="77" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -2917,18 +3108,18 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -2968,11 +3159,11 @@
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="9" t="s">
@@ -3001,7 +3192,7 @@
       <c r="B58" s="41">
         <v>1</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="C58" s="81" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -3025,7 +3216,7 @@
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="77"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="41" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3238,7 @@
       <c r="B60" s="41">
         <v>3</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="67" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
@@ -3071,7 +3262,7 @@
       <c r="B61" s="41">
         <v>4</v>
       </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="41" t="s">
         <v>151</v>
       </c>
@@ -3155,21 +3346,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3323,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3345,21 +3536,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3371,13 +3562,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="28">
@@ -3416,13 +3607,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="28">
@@ -3485,6 +3676,207 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="57">
+        <v>1</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="57">
+        <v>2</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="58">
+        <v>1</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="98"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="58">
+        <v>2</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="97"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="58">
+        <v>1</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="103">
+        <v>42856</v>
+      </c>
+      <c r="D19" s="104">
+        <v>42857</v>
+      </c>
+      <c r="E19" s="105"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="58">
+        <v>2</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="103">
+        <v>42861</v>
+      </c>
+      <c r="D20" s="104">
+        <v>42862</v>
+      </c>
+      <c r="E20" s="104">
+        <v>42863</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3783,10 +4175,10 @@
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="9" t="s">
         <v>162</v>
       </c>
@@ -3960,7 +4352,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="64" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3971,8 +4363,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3983,7 +4375,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -3992,7 +4384,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -4009,17 +4401,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -4033,10 +4425,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4229,7 +4621,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F18"/>
+      <selection activeCell="A15" sqref="A15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4872,21 +5264,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="945" windowWidth="14805" windowHeight="7110" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="1230" yWindow="945" windowWidth="14805" windowHeight="7110" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="操作">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="194">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1350,11 +1350,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マップカラム（optionalの確認）</t>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1627,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1728,6 +1735,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1759,15 +1771,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1782,6 +1785,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,6 +1810,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,27 +1828,14 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1843,6 +1851,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1872,13 +1883,13 @@
       <sheetName val="配列カラムの設定"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1901,23 +1912,23 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1959,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1992,9 +2003,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,6 +2055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2407,11 +2452,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -2477,10 +2522,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
@@ -2552,16 +2597,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="87" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2572,10 +2617,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2584,8 +2629,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2600,12 +2645,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="77" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="87" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2616,10 +2661,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2628,10 +2673,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2640,10 +2685,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="87" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2660,12 +2705,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="77" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="87" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2676,10 +2721,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2741,16 +2786,16 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="87" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2761,10 +2806,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2773,16 +2818,16 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -2797,12 +2842,12 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="77" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="87" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -2813,10 +2858,10 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -2825,10 +2870,10 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -2845,10 +2890,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="87" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -2865,12 +2910,12 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="77" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="87" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -2881,18 +2926,18 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2934,18 +2979,18 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="83" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="83" t="s">
+      <c r="E38" s="86"/>
+      <c r="F38" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="47" t="s">
@@ -2968,16 +3013,16 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="87" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -2988,10 +3033,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -3000,16 +3045,16 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -3024,12 +3069,12 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="77" t="s">
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="87" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -3040,10 +3085,10 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -3052,10 +3097,10 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -3072,10 +3117,10 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="87" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -3092,12 +3137,12 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="77" t="s">
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="77" t="s">
+      <c r="E49" s="87" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -3108,18 +3153,18 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -3159,11 +3204,11 @@
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="80" t="s">
+      <c r="F56" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="9" t="s">
@@ -3192,7 +3237,7 @@
       <c r="B58" s="41">
         <v>1</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="83" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -3216,7 +3261,7 @@
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="82"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="41" t="s">
         <v>35</v>
       </c>
@@ -3238,7 +3283,7 @@
       <c r="B60" s="41">
         <v>3</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="72" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
@@ -3262,7 +3307,7 @@
       <c r="B61" s="41">
         <v>4</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="41" t="s">
         <v>151</v>
       </c>
@@ -3278,6 +3323,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
@@ -3294,26 +3359,6 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3346,21 +3391,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3536,21 +3581,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3562,13 +3607,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="28">
@@ -3607,13 +3652,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="28">
@@ -3686,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3717,11 +3762,11 @@
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="57">
@@ -3769,14 +3814,14 @@
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="58">
@@ -3785,18 +3830,18 @@
       <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="99" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="98"/>
+      <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="58">
@@ -3805,18 +3850,18 @@
       <c r="B14" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="99" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="98"/>
+      <c r="H14" s="106"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -3830,11 +3875,11 @@
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="58">
@@ -3843,13 +3888,13 @@
       <c r="B19" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C19" s="64">
         <v>42856</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="65">
         <v>42857</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="58">
@@ -3858,13 +3903,13 @@
       <c r="B20" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="64">
         <v>42861</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="65">
         <v>42862</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="65">
         <v>42863</v>
       </c>
     </row>
@@ -4175,10 +4220,10 @@
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="9" t="s">
         <v>162</v>
       </c>
@@ -4352,7 +4397,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4363,8 +4408,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4375,7 +4420,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="69"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -4384,7 +4429,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="69"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -4401,17 +4446,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="72"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -4425,10 +4470,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4618,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4802,6 +4847,67 @@
         <v>46</v>
       </c>
       <c r="F18" s="30"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="10">
+        <v>42095</v>
+      </c>
+      <c r="D22" s="10">
+        <v>42096</v>
+      </c>
+      <c r="E22" s="10">
+        <v>42097</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="62">
+        <v>1</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="62">
+        <v>2</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5264,21 +5370,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="945" windowWidth="14805" windowHeight="7110" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="1230" yWindow="945" windowWidth="14805" windowHeight="7110" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -1634,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1771,6 +1771,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1785,15 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1836,6 +1836,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1883,13 +1886,13 @@
       <sheetName val="配列カラムの設定"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1912,16 +1915,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2597,16 +2600,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="82" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2617,10 +2620,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2629,8 +2632,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2645,12 +2648,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="87" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="82" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2661,10 +2664,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2673,10 +2676,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2685,10 +2688,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="82" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2705,12 +2708,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="87" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="82" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2721,10 +2724,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2786,16 +2789,16 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="82" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2806,10 +2809,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2818,16 +2821,16 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -2842,12 +2845,12 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="87" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="82" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -2858,10 +2861,10 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -2870,10 +2873,10 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -2890,10 +2893,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="82" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -2910,12 +2913,12 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="87" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="82" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -2926,18 +2929,18 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2983,14 +2986,14 @@
         <v>140</v>
       </c>
       <c r="C38" s="91"/>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="85" t="s">
+      <c r="E38" s="89"/>
+      <c r="F38" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="86"/>
+      <c r="G38" s="89"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="47" t="s">
@@ -3013,16 +3016,16 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="82" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -3033,10 +3036,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -3045,16 +3048,16 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -3069,12 +3072,12 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="87" t="s">
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="82" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -3085,10 +3088,10 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -3097,10 +3100,10 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -3117,10 +3120,10 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="82" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -3137,12 +3140,12 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="87" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="87" t="s">
+      <c r="E49" s="82" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -3153,18 +3156,18 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -3204,11 +3207,11 @@
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="82" t="s">
+      <c r="F56" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="9" t="s">
@@ -3237,7 +3240,7 @@
       <c r="B58" s="41">
         <v>1</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="86" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -3261,7 +3264,7 @@
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="41" t="s">
         <v>35</v>
       </c>
@@ -3323,26 +3326,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
@@ -3359,6 +3342,26 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3596,13 +3599,13 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="107" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4665,7 +4668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21168409-FA49-43FA-8260-FF3F2E00402A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="945" windowWidth="14805" windowHeight="7110" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="33195" yWindow="1410" windowWidth="21615" windowHeight="13860" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -21,20 +22,158 @@
     <sheet name="数式を指定" sheetId="12" r:id="rId12"/>
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
     <sheet name="配列カラムの設定" sheetId="14" r:id="rId14"/>
+    <sheet name="コメント情報" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="操作">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{D1DBF6AF-FC4C-40C3-BFFD-53753112C8EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A326DEAF-4368-40E5-BC6C-16E12A1AD23A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{05C21EB1-1877-48D0-89D3-6CFF5C849C31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{A01AD514-392C-4A15-A03F-6EBCEA6B39B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{93F815A4-A98C-4E4E-987A-6F9B1D001368}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{D2567112-6667-49F2-993A-7063455F34D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{61B9E354-4C39-47E7-9D7A-DADAC371BAFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{838269B4-AA93-413A-84FD-6595A79CC25E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="198">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1357,16 +1496,44 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報の取得</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のカラム</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1587,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1634,7 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1740,6 +1915,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1836,9 +2015,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1884,15 +2060,16 @@
       <sheetName val="結合セルの補正"/>
       <sheetName val="独自の開始位置"/>
       <sheetName val="配列カラムの設定"/>
+      <sheetName val="コメント情報"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="30">
           <cell r="C30" t="str">
@@ -1915,16 +2092,17 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2250,29 +2428,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2283,7 +2461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2294,7 +2472,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2305,12 +2483,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2321,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -2332,7 +2510,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" s="2">
         <v>2</v>
       </c>
@@ -2343,12 +2521,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="C15" s="2">
         <v>1</v>
       </c>
@@ -2370,7 +2548,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="C16" s="2">
         <v>2</v>
       </c>
@@ -2381,15 +2559,15 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -2400,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2411,7 +2589,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -2429,39 +2607,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="9" t="s">
         <v>72</v>
       </c>
@@ -2481,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="16">
         <v>1</v>
       </c>
@@ -2502,7 +2680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="16">
         <v>2</v>
       </c>
@@ -2523,12 +2701,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="26"/>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
@@ -2554,14 +2732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
@@ -2569,17 +2747,17 @@
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="45" t="s">
         <v>93</v>
       </c>
@@ -2599,17 +2777,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="84" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2619,11 +2797,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
+    <row r="7" spans="1:7">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2631,9 +2809,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+    <row r="8" spans="1:7">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2647,13 +2825,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="82" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="84" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2663,11 +2841,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+    <row r="10" spans="1:7">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2675,11 +2853,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
+    <row r="11" spans="1:7">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2687,11 +2865,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="82" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="84" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2707,13 +2885,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="84" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2723,11 +2901,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
+    <row r="14" spans="1:7">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2735,7 +2913,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="40" t="s">
         <v>120</v>
       </c>
@@ -2755,7 +2933,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -2763,12 +2941,12 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="38" t="s">
         <v>93</v>
       </c>
@@ -2788,17 +2966,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="82" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="84" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2808,11 +2986,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
+    <row r="22" spans="2:7">
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2820,17 +2998,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
+    <row r="23" spans="2:7">
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
+    <row r="24" spans="2:7">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -2844,13 +3022,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="82" t="s">
+    <row r="25" spans="2:7">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="84" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -2860,11 +3038,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+    <row r="26" spans="2:7">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -2872,11 +3050,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
+    <row r="27" spans="2:7">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -2884,7 +3062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
@@ -2892,11 +3070,11 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="82" t="s">
+    <row r="29" spans="2:7">
+      <c r="B29" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="84" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -2912,13 +3090,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="82" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="84" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -2928,19 +3106,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
+    <row r="31" spans="2:7">
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
+    <row r="32" spans="2:7">
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2948,7 +3126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="40" t="s">
         <v>120</v>
       </c>
@@ -2968,7 +3146,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -2976,26 +3154,26 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="90" t="s">
+    <row r="38" spans="2:7">
+      <c r="B38" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="88" t="s">
+      <c r="C38" s="93"/>
+      <c r="D38" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="88" t="s">
+      <c r="E38" s="91"/>
+      <c r="F38" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="89"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="91"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="47" t="s">
         <v>139</v>
       </c>
@@ -3015,17 +3193,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="82" t="s">
+    <row r="40" spans="2:7">
+      <c r="B40" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="84" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -3035,11 +3213,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
+    <row r="41" spans="2:7">
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -3047,17 +3225,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
+    <row r="42" spans="2:7">
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
+    <row r="43" spans="2:7">
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -3071,13 +3249,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="82" t="s">
+    <row r="44" spans="2:7">
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="84" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -3087,11 +3265,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
+    <row r="45" spans="2:7">
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -3099,11 +3277,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
+    <row r="46" spans="2:7">
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -3111,7 +3289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
@@ -3119,11 +3297,11 @@
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="82" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="84" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -3139,13 +3317,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="82" t="s">
+    <row r="49" spans="2:8">
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="84" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -3155,19 +3333,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
+    <row r="50" spans="2:8">
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
+    <row r="51" spans="2:8">
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -3175,7 +3353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="40" t="s">
         <v>120</v>
       </c>
@@ -3195,7 +3373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
@@ -3203,17 +3381,17 @@
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="85" t="s">
+      <c r="F56" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="9" t="s">
         <v>1</v>
       </c>
@@ -3236,11 +3414,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="41">
         <v>1</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="88" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -3260,11 +3438,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8">
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="41" t="s">
         <v>35</v>
       </c>
@@ -3282,11 +3460,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8">
       <c r="B60" s="41">
         <v>3</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="74" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
@@ -3306,11 +3484,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8">
       <c r="B61" s="41">
         <v>4</v>
       </c>
-      <c r="C61" s="73"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="41" t="s">
         <v>151</v>
       </c>
@@ -3369,46 +3547,46 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="77" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3419,7 +3597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" s="28">
         <v>1</v>
       </c>
@@ -3437,7 +3615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="B9" s="28">
         <v>2</v>
       </c>
@@ -3455,7 +3633,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="B10" s="28">
         <v>3</v>
       </c>
@@ -3475,12 +3653,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -3503,7 +3681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="B15" s="54">
         <v>1</v>
       </c>
@@ -3525,7 +3703,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="54">
         <v>2</v>
       </c>
@@ -3559,66 +3737,66 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="C2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="77" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="107" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="92" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="28">
         <v>1</v>
       </c>
@@ -3636,7 +3814,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" s="28">
         <v>2</v>
       </c>
@@ -3654,16 +3832,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="92" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="B12" s="28">
         <v>1</v>
       </c>
@@ -3681,7 +3859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="28">
         <v>2</v>
       </c>
@@ -3699,7 +3877,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="28">
         <v>3</v>
       </c>
@@ -3731,47 +3909,47 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A11" sqref="A11:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="57">
         <v>1</v>
       </c>
@@ -3788,7 +3966,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="57">
         <v>2</v>
       </c>
@@ -3805,28 +3983,28 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="58">
         <v>1</v>
       </c>
@@ -3836,17 +4014,17 @@
       <c r="C13" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="106"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="108"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="58">
         <v>2</v>
       </c>
@@ -3856,35 +4034,35 @@
       <c r="C14" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105" t="s">
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="106"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H14" s="108"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="58">
         <v>1</v>
       </c>
@@ -3899,7 +4077,7 @@
       </c>
       <c r="E19" s="66"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="58">
         <v>2</v>
       </c>
@@ -3931,27 +4109,214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FA3275-5091-4237-B5A3-AAF841A58A2C}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="67">
+        <v>1</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="67">
+        <v>2</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42095</v>
+      </c>
+      <c r="D12" s="10">
+        <v>42096</v>
+      </c>
+      <c r="E12" s="10">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="67">
+        <v>1</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="67"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="67">
+        <v>2</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="67">
+        <v>1</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="108"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="67">
+        <v>2</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3962,7 +4327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3973,7 +4338,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -3984,12 +4349,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="16">
         <v>3</v>
       </c>
@@ -4000,17 +4365,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -4021,7 +4386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -4032,12 +4397,12 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -4048,12 +4413,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:7">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:7">
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
@@ -4064,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:7">
       <c r="C20" s="2">
         <v>1</v>
       </c>
@@ -4075,7 +4440,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:7">
       <c r="C21" s="2">
         <v>2</v>
       </c>
@@ -4086,7 +4451,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:7">
       <c r="C22" s="4">
         <v>3</v>
       </c>
@@ -4098,12 +4463,12 @@
         <v>0.45599999999999952</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:7">
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:7">
       <c r="D25" s="3" t="s">
         <v>1</v>
       </c>
@@ -4117,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:7">
       <c r="D26" s="2">
         <v>1</v>
       </c>
@@ -4131,7 +4496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:7">
       <c r="D27" s="2">
         <v>2</v>
       </c>
@@ -4152,36 +4517,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="D2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>156</v>
       </c>
@@ -4192,7 +4557,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="52">
         <v>1</v>
       </c>
@@ -4203,7 +4568,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" s="52">
         <v>2</v>
       </c>
@@ -4214,24 +4579,24 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="68"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" s="52">
         <v>1</v>
       </c>
@@ -4243,7 +4608,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="52">
         <v>2</v>
       </c>
@@ -4255,12 +4620,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10">
       <c r="B18" s="9" t="s">
         <v>157</v>
       </c>
@@ -4272,7 +4637,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" s="52">
         <v>1</v>
       </c>
@@ -4284,7 +4649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="B20" s="52">
         <v>2</v>
       </c>
@@ -4296,12 +4661,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10">
       <c r="C24" s="9" t="s">
         <v>157</v>
       </c>
@@ -4317,7 +4682,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10">
       <c r="C25" s="52">
         <v>1</v>
       </c>
@@ -4333,7 +4698,7 @@
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10">
       <c r="C26" s="52">
         <v>2</v>
       </c>
@@ -4359,14 +4724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -4375,17 +4740,17 @@
     <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -4396,45 +4761,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="69"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="71"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="69"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4445,43 +4810,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="72"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="74"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -4498,7 +4863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -4515,12 +4880,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4534,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="C22" s="2">
         <v>1</v>
       </c>
@@ -4548,7 +4913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="C23" s="2">
         <v>2</v>
       </c>
@@ -4562,12 +4927,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
@@ -4578,7 +4943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="C27" s="2">
         <v>1</v>
       </c>
@@ -4589,7 +4954,7 @@
         <v>12.456</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="C28" s="2">
         <v>2</v>
       </c>
@@ -4600,12 +4965,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
@@ -4619,7 +4984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32" s="7">
         <v>1</v>
       </c>
@@ -4633,7 +4998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="7">
         <v>2</v>
       </c>
@@ -4657,37 +5022,37 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1"/>
-    <hyperlink ref="D17" r:id="rId2"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A3" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4704,7 +5069,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4719,7 +5084,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4736,12 +5101,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -4758,7 +5123,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -4773,7 +5138,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -4790,12 +5155,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>1</v>
       </c>
@@ -4815,7 +5180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="30">
         <v>1</v>
       </c>
@@ -4833,7 +5198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="30">
         <v>2</v>
       </c>
@@ -4851,12 +5216,12 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>1</v>
       </c>
@@ -4876,7 +5241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="62">
         <v>1</v>
       </c>
@@ -4894,7 +5259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="62">
         <v>2</v>
       </c>
@@ -4920,29 +5285,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
@@ -4953,7 +5318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4964,7 +5329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -4975,14 +5340,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -4993,17 +5358,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -5014,7 +5379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="44">
         <v>1</v>
       </c>
@@ -5025,7 +5390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="44">
         <v>2</v>
       </c>
@@ -5036,14 +5401,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="44">
         <v>3</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>4</v>
       </c>
@@ -5054,22 +5419,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
@@ -5080,7 +5445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -5091,7 +5456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -5102,14 +5467,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="11">
         <v>3</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="11">
         <v>4</v>
       </c>
@@ -5120,7 +5485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -5132,29 +5497,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5165,7 +5530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -5176,7 +5541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="15">
         <v>2</v>
       </c>
@@ -5187,14 +5552,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -5205,17 +5570,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -5232,7 +5597,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="15">
         <v>1</v>
       </c>
@@ -5247,7 +5612,7 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="15">
         <v>2</v>
       </c>
@@ -5264,7 +5629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="15">
         <v>3</v>
       </c>
@@ -5280,34 +5645,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="C2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
@@ -5324,14 +5689,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="28">
         <v>1</v>
       </c>
@@ -5349,7 +5714,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" s="28">
         <v>2</v>
       </c>
@@ -5367,27 +5732,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="77" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>
@@ -5398,7 +5763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="28">
         <v>1</v>
       </c>
@@ -5416,7 +5781,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="28">
         <v>2</v>
       </c>
@@ -5446,31 +5811,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
@@ -5490,7 +5855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="28">
         <v>1</v>
       </c>
@@ -5510,7 +5875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="28">
         <v>2</v>
       </c>
@@ -5520,15 +5885,15 @@
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="40.5">
       <c r="B11" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="31" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5913,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="28">
         <v>1</v>
       </c>
@@ -5568,7 +5933,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="28">
         <v>2</v>
       </c>
@@ -5578,12 +5943,12 @@
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="27">
       <c r="B18" s="31" t="s">
         <v>1</v>
       </c>
@@ -5603,7 +5968,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="28">
         <v>1</v>
       </c>
@@ -5623,7 +5988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="28">
         <v>2</v>
       </c>
@@ -5633,12 +5998,12 @@
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="27">
       <c r="B24" s="31" t="s">
         <v>1</v>
       </c>
@@ -5658,7 +6023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="28">
         <v>1</v>
       </c>
@@ -5678,7 +6043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="28">
         <v>2</v>
       </c>
@@ -5688,7 +6053,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="34">
         <v>3</v>
       </c>

--- a/src/test/data/anno_HorizonalRecords.xlsx
+++ b/src/test/data/anno_HorizonalRecords.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21168409-FA49-43FA-8260-FF3F2E00402A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE172A1-4FF4-42FC-9DA0-42E9999B4826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33195" yWindow="1410" windowWidth="21615" windowHeight="13860" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29790" yWindow="-120" windowWidth="27930" windowHeight="16440" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -23,22 +23,16 @@
     <sheet name="独自の開始位置" sheetId="13" r:id="rId13"/>
     <sheet name="配列カラムの設定" sheetId="14" r:id="rId14"/>
     <sheet name="コメント情報" sheetId="15" r:id="rId15"/>
+    <sheet name="メソッドが存在しない" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名">'[1]オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="操作">'[1]オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -173,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="200">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1521,6 +1515,23 @@
     <t>通常のカラム</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するアクセッサメソッドが存在しないときのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネストした表</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1809,7 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1919,6 +1930,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1950,15 +1967,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1973,6 +1981,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2061,6 +2078,7 @@
       <sheetName val="独自の開始位置"/>
       <sheetName val="配列カラムの設定"/>
       <sheetName val="コメント情報"/>
+      <sheetName val="メソッドが存在しない"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2103,6 +2121,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2432,7 +2451,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A4" sqref="A4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2611,7 +2630,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2633,11 +2652,11 @@
         <v>70</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="9" t="s">
@@ -2703,10 +2722,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="26"/>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="22">
         <f>AVERAGE(E7:E8)</f>
         <v>85</v>
@@ -2736,7 +2755,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="B4" sqref="B4:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2778,16 +2797,16 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="93" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2798,10 +2817,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="40" t="s">
         <v>103</v>
       </c>
@@ -2810,8 +2829,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
@@ -2826,12 +2845,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="40" t="s">
@@ -2842,10 +2861,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="40" t="s">
         <v>110</v>
       </c>
@@ -2854,10 +2873,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
@@ -2866,10 +2885,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="93" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2886,12 +2905,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="84" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="93" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -2902,10 +2921,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="40" t="s">
         <v>119</v>
       </c>
@@ -2967,16 +2986,16 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="93" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -2987,10 +3006,10 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="40" t="s">
         <v>103</v>
       </c>
@@ -2999,16 +3018,16 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="40" t="s">
         <v>104</v>
       </c>
@@ -3023,12 +3042,12 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="84" t="s">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -3039,10 +3058,10 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="40" t="s">
         <v>110</v>
       </c>
@@ -3051,10 +3070,10 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="40" t="s">
         <v>127</v>
       </c>
@@ -3071,10 +3090,10 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="93" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -3091,12 +3110,12 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="84" t="s">
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="93" t="s">
         <v>117</v>
       </c>
       <c r="F30" s="40" t="s">
@@ -3107,18 +3126,18 @@
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="40" t="s">
         <v>119</v>
       </c>
@@ -3160,18 +3179,18 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="90" t="s">
+      <c r="C38" s="97"/>
+      <c r="D38" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="90" t="s">
+      <c r="E38" s="92"/>
+      <c r="F38" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="47" t="s">
@@ -3194,16 +3213,16 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="93" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -3214,10 +3233,10 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="40" t="s">
         <v>103</v>
       </c>
@@ -3226,16 +3245,16 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="40" t="s">
         <v>104</v>
       </c>
@@ -3250,12 +3269,12 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="84" t="s">
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="40" t="s">
@@ -3266,10 +3285,10 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
       <c r="F45" s="40" t="s">
         <v>110</v>
       </c>
@@ -3278,10 +3297,10 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="40" t="s">
         <v>127</v>
       </c>
@@ -3298,10 +3317,10 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="93" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -3318,12 +3337,12 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="84" t="s">
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="93" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -3334,18 +3353,18 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="40" t="s">
         <v>119</v>
       </c>
@@ -3385,11 +3404,11 @@
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="87" t="s">
+      <c r="F56" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="9" t="s">
@@ -3418,7 +3437,7 @@
       <c r="B58" s="41">
         <v>1</v>
       </c>
-      <c r="C58" s="88" t="s">
+      <c r="C58" s="89" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -3442,7 +3461,7 @@
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="41" t="s">
         <v>35</v>
       </c>
@@ -3464,7 +3483,7 @@
       <c r="B60" s="41">
         <v>3</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="78" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
@@ -3488,7 +3507,7 @@
       <c r="B61" s="41">
         <v>4</v>
       </c>
-      <c r="C61" s="75"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="41" t="s">
         <v>151</v>
       </c>
@@ -3504,6 +3523,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
@@ -3520,26 +3559,6 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3572,21 +3591,21 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
@@ -3762,21 +3781,21 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="68" t="s">
         <v>73</v>
       </c>
@@ -3788,13 +3807,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="28">
@@ -3833,13 +3852,13 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="28">
@@ -3913,7 +3932,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3943,11 +3962,11 @@
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="57">
@@ -3995,14 +4014,14 @@
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="58">
@@ -4014,15 +4033,15 @@
       <c r="C13" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107" t="s">
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="108"/>
+      <c r="H13" s="112"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="58">
@@ -4034,15 +4053,15 @@
       <c r="C14" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107" t="s">
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="108"/>
+      <c r="H14" s="112"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -4056,11 +4075,11 @@
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="58">
@@ -4113,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FA3275-5091-4237-B5A3-AAF841A58A2C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4233,14 +4252,14 @@
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="67">
@@ -4252,15 +4271,15 @@
       <c r="C19" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107" t="s">
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="108"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="67">
@@ -4272,15 +4291,15 @@
       <c r="C20" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107" t="s">
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="108"/>
+      <c r="H20" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4292,7 +4311,221 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BDA451-EAA0-48AA-9461-DBE6D50801AE}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="69">
+        <v>1</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69">
+        <v>12.456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="69">
+        <v>2</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="69">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42095</v>
+      </c>
+      <c r="D12" s="10">
+        <v>42096</v>
+      </c>
+      <c r="E12" s="10">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="69">
+        <v>1</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="69"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="69">
+        <v>2</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="69">
+        <v>1</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="69">
+        <v>2</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="94"/>
+      <c r="B26" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A25:A26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4521,7 +4754,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:J26"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4588,10 +4821,10 @@
       <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="9" t="s">
         <v>162</v>
       </c>
@@ -4728,7 +4961,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F17"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4765,7 +4998,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="75" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4776,8 +5009,8 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4788,7 +5021,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="75"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
@@ -4797,7 +5030,7 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="75"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
@@ -4814,17 +5047,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
@@ -4838,10 +5071,10 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
@@ -5034,7 +5267,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E7"/>
+      <selection activeCell="A4" sqref="A4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5289,7 +5522,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C18"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5501,7 +5734,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5738,21 +5971,21 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="20" t="s">
         <v>73</v>
       </c>
